--- a/Base/Teams/Browns/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Browns/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Browns/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Browns/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C2">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>26</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Browns/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Browns/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Browns/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Browns/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>17</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>2</v>
